--- a/tests/out/applicants_df.xlsx
+++ b/tests/out/applicants_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O120"/>
+  <dimension ref="A1:Y120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,56 @@
           <t>Number of Patents with Citation Score (Fractionally Counted)</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2015 (Fractionally Counted)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2016 (Fractionally Counted)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2017 (Fractionally Counted)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2018 (Fractionally Counted)</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2019 (Fractionally Counted)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -518,7 +568,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;BARENDS RAMI;;グーグル エルエルシー;;구글 엘엘씨;;GOOGLE INC;;GOOGLE LLC</t>
+          <t>GOOGLE INC;;ラミ・バレントス;;구글 엘엘씨;;BARENDS RAMI;;グーグル エルエルシー;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -526,7 +576,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CA;;WO;;EP;;SG;;JP;;US;;KR;;AU;;CN</t>
+          <t>JP;;AU;;CN;;KR;;US;;SG;;CA;;EP;;WO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -568,6 +618,36 @@
       <c r="O2" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -577,7 +657,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP;;MOLINSKY BRADLEY DEAN</t>
+          <t>BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -627,6 +707,36 @@
       <c r="O3" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,7 +746,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY;;BROWN SIMON ANTHONY</t>
+          <t>THE UNIV OF CANTERBURY;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -686,6 +796,36 @@
       <c r="O4" t="n">
         <v>0.25</v>
       </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -745,6 +885,36 @@
       <c r="O5" t="n">
         <v>0</v>
       </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -754,7 +924,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY;;BROWN SIMON ANTHONY</t>
+          <t>THE UNIV OF CANTERBURY;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -804,6 +974,36 @@
       <c r="O6" t="n">
         <v>0.25</v>
       </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -821,7 +1021,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>WO;;CA</t>
+          <t>CA;;WO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -863,6 +1063,36 @@
       <c r="O7" t="n">
         <v>0</v>
       </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -872,7 +1102,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP;;MOLINSKY BRADLEY DEAN</t>
+          <t>BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -922,6 +1152,36 @@
       <c r="O8" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -931,7 +1191,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NIU YUEZHEN;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE INC;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM</t>
+          <t>NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE INC;;NIU YUEZHEN;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -939,7 +1199,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CA;;WO;;EP;;JP;;US;;KR;;AU;;CN</t>
+          <t>JP;;AU;;CN;;KR;;US;;CA;;EP;;WO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -981,6 +1241,36 @@
       <c r="O9" t="n">
         <v>0</v>
       </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -998,7 +1288,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CA;;WO;;EP;;US;;KR;;AU</t>
+          <t>AU;;KR;;US;;CA;;EP;;WO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1040,6 +1330,36 @@
       <c r="O10" t="n">
         <v>0</v>
       </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1057,7 +1377,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CA;;EP;;KR;;AU</t>
+          <t>KR;;AU;;CA;;EP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1099,6 +1419,36 @@
       <c r="O11" t="n">
         <v>0</v>
       </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1116,7 +1466,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1158,6 +1508,36 @@
       <c r="O12" t="n">
         <v>0</v>
       </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1175,7 +1555,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>WO;;EP;;FR</t>
+          <t>EP;;WO;;FR</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1217,6 +1597,36 @@
       <c r="O13" t="n">
         <v>2</v>
       </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1234,7 +1644,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1276,6 +1686,36 @@
       <c r="O14" t="n">
         <v>1</v>
       </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1285,7 +1725,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+          <t>YARKONI SHEIR;;D WAVE SYSTEMS INC</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1293,7 +1733,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>EP;;US;;CN</t>
+          <t>US;;EP;;CN</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1335,6 +1775,36 @@
       <c r="O15" t="n">
         <v>2</v>
       </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1394,6 +1864,36 @@
       <c r="O16" t="n">
         <v>1.5</v>
       </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1411,7 +1911,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1453,6 +1953,36 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1462,7 +1992,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP;;MOLINSKY BRADLEY DEAN</t>
+          <t>BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1512,6 +2042,36 @@
       <c r="O18" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1571,6 +2131,36 @@
       <c r="O19" t="n">
         <v>0</v>
       </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1588,7 +2178,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1630,6 +2220,36 @@
       <c r="O20" t="n">
         <v>0</v>
       </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>23</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1647,7 +2267,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CA;;GB;;WO;;EP;;SG;;TW</t>
+          <t>TW;;GB;;SG;;CA;;EP;;WO</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1689,6 +2309,36 @@
       <c r="O21" t="n">
         <v>1</v>
       </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1698,7 +2348,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY;;BROWN SIMON ANTHONY</t>
+          <t>THE UNIV OF CANTERBURY;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1748,6 +2398,36 @@
       <c r="O22" t="n">
         <v>0.25</v>
       </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1807,6 +2487,36 @@
       <c r="O23" t="n">
         <v>0</v>
       </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1816,7 +2526,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;NIU YUEZHEN;;BARENDS RAMI;;グーグル エルエルシー;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;구글 엘엘씨;;GOOGLE INC;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT;;GOOGLE INC;;NIU YUEZHEN;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;구글 엘엘씨;;BARENDS RAMI;;グーグル エルエルシー;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1824,7 +2534,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CA;;WO;;EP;;SG;;JP;;US;;KR;;AU;;CN</t>
+          <t>JP;;AU;;CN;;KR;;US;;SG;;CA;;EP;;WO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1866,6 +2576,36 @@
       <c r="O24" t="n">
         <v>0.6666666666666667</v>
       </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1875,7 +2615,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;NIU YUEZHEN;;BARENDS RAMI;;グーグル エルエルシー;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;구글 엘엘씨;;GOOGLE INC;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT;;GOOGLE INC;;NIU YUEZHEN;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;구글 엘엘씨;;BARENDS RAMI;;グーグル エルエルシー;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1883,7 +2623,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CA;;WO;;EP;;SG;;JP;;US;;KR;;AU;;CN</t>
+          <t>JP;;AU;;CN;;KR;;US;;SG;;CA;;EP;;WO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1893,7 +2633,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CA;;AU;;US</t>
+          <t>AU;;CA;;US</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1925,6 +2665,36 @@
       <c r="O25" t="n">
         <v>3.5</v>
       </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1934,7 +2704,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP;;MOLINSKY BRADLEY DEAN</t>
+          <t>BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1984,6 +2754,36 @@
       <c r="O26" t="n">
         <v>2.166666666666667</v>
       </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2001,7 +2801,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>WO;;CA;;EP;;US</t>
+          <t>CA;;US;;EP;;WO</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2043,6 +2843,36 @@
       <c r="O27" t="n">
         <v>0</v>
       </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>2</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2102,6 +2932,36 @@
       <c r="O28" t="n">
         <v>0</v>
       </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2119,7 +2979,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>EP;;US</t>
+          <t>US;;EP</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2161,6 +3021,36 @@
       <c r="O29" t="n">
         <v>2</v>
       </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2220,6 +3110,36 @@
       <c r="O30" t="n">
         <v>1</v>
       </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2229,7 +3149,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>IBM;;IBM UK;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司;;IBM (CHINA) INVEST COMPANY LTD</t>
+          <t>国际商业机器公司;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;IBM</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -2237,7 +3157,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>GB;;WO;;JP;;DE;;US;;CN</t>
+          <t>JP;;CN;;DE;;GB;;US;;WO</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2279,6 +3199,36 @@
       <c r="O31" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="P31" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="n">
+        <v>6</v>
+      </c>
+      <c r="U31" t="n">
+        <v>4.666666666666666</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2288,7 +3238,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>IBM UK;;IBM (CHINA) INVEST COMPANY LTD;;IBM</t>
+          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;IBM</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -2296,7 +3246,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2338,6 +3288,36 @@
       <c r="O32" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2347,7 +3327,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>IBM UK;;IBM (CHINA) INVEST COMPANY LTD;;IBM</t>
+          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;IBM</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -2355,7 +3335,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2397,6 +3377,36 @@
       <c r="O33" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2456,6 +3466,36 @@
       <c r="O34" t="n">
         <v>0</v>
       </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2465,7 +3505,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+          <t>UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;IMEC VZW</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -2473,7 +3513,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>EP;;KR;;US</t>
+          <t>KR;;US;;EP</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2515,6 +3555,36 @@
       <c r="O35" t="n">
         <v>0</v>
       </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2524,7 +3594,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
+          <t>INST MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -2574,6 +3644,36 @@
       <c r="O36" t="n">
         <v>0.8333333333333333</v>
       </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2583,7 +3683,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
+          <t>INST MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2633,6 +3733,36 @@
       <c r="O37" t="n">
         <v>0.8333333333333333</v>
       </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>6</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2692,6 +3822,36 @@
       <c r="O38" t="n">
         <v>0</v>
       </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2751,6 +3911,36 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2760,7 +3950,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DODO OMNIDATA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
+          <t>IRIDIA INC;;DODO OMNIDATA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2768,7 +3958,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CA;;EP;;JP;;KR;;US;;CN</t>
+          <t>JP;;CN;;KR;;US;;CA;;EP</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2810,6 +4000,36 @@
       <c r="O40" t="n">
         <v>0.5</v>
       </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2869,6 +4089,36 @@
       <c r="O41" t="n">
         <v>0.5</v>
       </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2928,6 +4178,36 @@
       <c r="O42" t="n">
         <v>0</v>
       </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2937,7 +4217,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+          <t>UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;IMEC VZW</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -2945,7 +4225,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>EP;;US</t>
+          <t>US;;EP</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2987,6 +4267,36 @@
       <c r="O43" t="n">
         <v>0</v>
       </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -3004,7 +4314,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CA;;WO;;EP;;JP;;US;;KR;;AU;;CN</t>
+          <t>JP;;AU;;CN;;KR;;US;;CA;;EP;;WO</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3046,6 +4356,36 @@
       <c r="O44" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>4.333333333333334</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -3055,7 +4395,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
+          <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -3063,7 +4403,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>WO;;EP;;JP;;KR;;TW;;US;;CN</t>
+          <t>JP;;CN;;KR;;TW;;US;;EP;;WO</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3105,6 +4445,36 @@
       <c r="O45" t="n">
         <v>2</v>
       </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -3114,7 +4484,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -3122,7 +4492,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ZA;;IL;;CA;;RU;;WO;;EP;;JP;;US;;KR;;TW;;AU;;CN</t>
+          <t>JP;;AU;;IL;;RU;;CN;;KR;;TW;;ZA;;US;;CA;;EP;;WO</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3164,6 +4534,36 @@
       <c r="O46" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -3173,7 +4573,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -3181,7 +4581,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ZA;;IL;;CA;;RU;;WO;;EP;;JP;;US;;KR;;TW;;AU;;CN</t>
+          <t>JP;;AU;;IL;;RU;;CN;;KR;;TW;;ZA;;US;;CA;;EP;;WO</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3223,6 +4623,36 @@
       <c r="O47" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -3232,7 +4662,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -3240,7 +4670,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ZA;;IL;;CA;;RU;;WO;;EP;;JP;;US;;KR;;TW;;AU;;CN</t>
+          <t>JP;;AU;;IL;;RU;;CN;;KR;;TW;;ZA;;US;;CA;;EP;;WO</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3282,6 +4712,36 @@
       <c r="O48" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -3299,7 +4759,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3341,6 +4801,36 @@
       <c r="O49" t="n">
         <v>0</v>
       </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -3358,7 +4848,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>WO;;EP;;US;;CN</t>
+          <t>US;;EP;;WO;;CN</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3400,6 +4890,36 @@
       <c r="O50" t="n">
         <v>0</v>
       </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -3409,7 +4929,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP;;MOLINSKY BRADLEY DEAN</t>
+          <t>BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -3459,6 +4979,36 @@
       <c r="O51" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -3518,6 +5068,36 @@
       <c r="O52" t="n">
         <v>0</v>
       </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -3535,7 +5115,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>WO;;EP;;TW;;US</t>
+          <t>TW;;EP;;WO;;US</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3577,6 +5157,36 @@
       <c r="O53" t="n">
         <v>2</v>
       </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>4</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -3586,7 +5196,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NIU YUEZHEN;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE INC;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM</t>
+          <t>NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE INC;;NIU YUEZHEN;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -3594,7 +5204,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CA;;WO;;EP;;JP;;US;;KR;;AU;;CN</t>
+          <t>JP;;AU;;CN;;KR;;US;;CA;;EP;;WO</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3636,6 +5246,36 @@
       <c r="O54" t="n">
         <v>0</v>
       </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -3645,7 +5285,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NIU YUEZHEN;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE INC;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM</t>
+          <t>NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE INC;;NIU YUEZHEN;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -3653,7 +5293,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>CA;;WO;;EP;;JP;;US;;KR;;AU;;CN</t>
+          <t>JP;;AU;;CN;;KR;;US;;CA;;EP;;WO</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3695,6 +5335,36 @@
       <c r="O55" t="n">
         <v>0</v>
       </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -3704,7 +5374,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -3712,7 +5382,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ZA;;IL;;CA;;RU;;WO;;EP;;JP;;US;;KR;;TW;;AU;;CN</t>
+          <t>JP;;AU;;IL;;RU;;CN;;KR;;TW;;ZA;;US;;CA;;EP;;WO</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3754,6 +5424,36 @@
       <c r="O56" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -3771,7 +5471,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>WO;;CA;;KR;;US</t>
+          <t>KR;;CA;;US;;WO</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3813,6 +5513,36 @@
       <c r="O57" t="n">
         <v>0</v>
       </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>3</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -3872,6 +5602,36 @@
       <c r="O58" t="n">
         <v>0</v>
       </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -3889,7 +5649,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>WO;;EP;;US</t>
+          <t>US;;EP;;WO</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3931,6 +5691,36 @@
       <c r="O59" t="n">
         <v>1</v>
       </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>6</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>2</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -3990,6 +5780,36 @@
       <c r="O60" t="n">
         <v>0</v>
       </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -4049,6 +5869,36 @@
       <c r="O61" t="n">
         <v>1</v>
       </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -4058,7 +5908,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NIU YUEZHEN;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE INC;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM</t>
+          <t>NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE INC;;NIU YUEZHEN;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -4066,7 +5916,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>CA;;WO;;EP;;JP;;US;;KR;;AU;;CN</t>
+          <t>JP;;AU;;CN;;KR;;US;;CA;;EP;;WO</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4108,6 +5958,36 @@
       <c r="O62" t="n">
         <v>0</v>
       </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -4117,7 +5997,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -4125,7 +6005,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ZA;;IL;;CA;;RU;;WO;;EP;;JP;;US;;KR;;TW;;AU;;CN</t>
+          <t>JP;;AU;;IL;;RU;;CN;;KR;;TW;;ZA;;US;;CA;;EP;;WO</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4167,6 +6047,36 @@
       <c r="O63" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -4176,7 +6086,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -4184,7 +6094,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ZA;;IL;;CA;;RU;;WO;;EP;;JP;;US;;KR;;TW;;AU;;CN</t>
+          <t>JP;;AU;;IL;;RU;;CN;;KR;;TW;;ZA;;US;;CA;;EP;;WO</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4226,6 +6136,36 @@
       <c r="O64" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -4235,7 +6175,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -4243,7 +6183,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ZA;;IL;;CA;;RU;;WO;;EP;;JP;;US;;KR;;TW;;AU;;CN</t>
+          <t>JP;;AU;;IL;;RU;;CN;;KR;;TW;;ZA;;US;;CA;;EP;;WO</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4285,6 +6225,36 @@
       <c r="O65" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -4302,7 +6272,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>WO;;CA;;EP;;US</t>
+          <t>CA;;US;;EP;;WO</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4344,6 +6314,36 @@
       <c r="O66" t="n">
         <v>0</v>
       </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -4361,7 +6361,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>TW;;US;;CN</t>
+          <t>CN;;TW;;US</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4403,6 +6403,36 @@
       <c r="O67" t="n">
         <v>0</v>
       </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -4420,7 +6450,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>TW;;US;;CN</t>
+          <t>CN;;TW;;US</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4462,6 +6492,36 @@
       <c r="O68" t="n">
         <v>0</v>
       </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -4521,6 +6581,36 @@
       <c r="O69" t="n">
         <v>0</v>
       </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -4580,6 +6670,36 @@
       <c r="O70" t="n">
         <v>1</v>
       </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -4597,7 +6717,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>WO;;CA;;US</t>
+          <t>CA;;US;;WO</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4639,6 +6759,36 @@
       <c r="O71" t="n">
         <v>0</v>
       </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>3</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -4648,7 +6798,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;ザ ユニバーシティー オブ カンタベリー</t>
+          <t>ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -4656,7 +6806,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>WO;;EP;;JP;;KR;;US;;CN</t>
+          <t>JP;;CN;;KR;;US;;EP;;WO</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4698,6 +6848,36 @@
       <c r="O72" t="n">
         <v>0.75</v>
       </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -4707,7 +6887,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP;;MOLINSKY BRADLEY DEAN</t>
+          <t>BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -4757,6 +6937,36 @@
       <c r="O73" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -4816,6 +7026,36 @@
       <c r="O74" t="n">
         <v>0.5</v>
       </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -4875,6 +7115,36 @@
       <c r="O75" t="n">
         <v>0</v>
       </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -4934,6 +7204,36 @@
       <c r="O76" t="n">
         <v>0</v>
       </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -4993,6 +7293,36 @@
       <c r="O77" t="n">
         <v>0</v>
       </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>1</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -5052,6 +7382,36 @@
       <c r="O78" t="n">
         <v>0</v>
       </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -5069,7 +7429,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>WO;;KR;;US;;CN</t>
+          <t>KR;;US;;WO;;CN</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5111,6 +7471,36 @@
       <c r="O79" t="n">
         <v>1</v>
       </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>2</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -5120,7 +7510,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+          <t>UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;IMEC VZW</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -5128,7 +7518,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>EP;;US</t>
+          <t>US;;EP</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5170,6 +7560,36 @@
       <c r="O80" t="n">
         <v>0</v>
       </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -5229,6 +7649,36 @@
       <c r="O81" t="n">
         <v>0</v>
       </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -5288,6 +7738,36 @@
       <c r="O82" t="n">
         <v>0</v>
       </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -5347,6 +7827,36 @@
       <c r="O83" t="n">
         <v>0</v>
       </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -5406,6 +7916,36 @@
       <c r="O84" t="n">
         <v>0</v>
       </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -5423,7 +7963,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -5433,7 +7973,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>IL;;US</t>
+          <t>US;;IL</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5465,6 +8005,36 @@
       <c r="O85" t="n">
         <v>1</v>
       </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="n">
+        <v>2</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -5474,7 +8044,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
+          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -5524,6 +8094,36 @@
       <c r="O86" t="n">
         <v>1</v>
       </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0</v>
+      </c>
+      <c r="V86" t="n">
+        <v>1</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -5533,7 +8133,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
+          <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -5583,6 +8183,36 @@
       <c r="O87" t="n">
         <v>0.5</v>
       </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -5592,7 +8222,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>UNIV SOUTHEAST;;东南大学</t>
+          <t>东南大学;;UNIV SOUTHEAST</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -5642,6 +8272,36 @@
       <c r="O88" t="n">
         <v>0.5</v>
       </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -5701,6 +8361,36 @@
       <c r="O89" t="n">
         <v>0</v>
       </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -5760,6 +8450,36 @@
       <c r="O90" t="n">
         <v>0</v>
       </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -5819,6 +8539,36 @@
       <c r="O91" t="n">
         <v>0</v>
       </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -5878,6 +8628,36 @@
       <c r="O92" t="n">
         <v>0</v>
       </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -5937,6 +8717,36 @@
       <c r="O93" t="n">
         <v>0</v>
       </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -5996,6 +8806,36 @@
       <c r="O94" t="n">
         <v>0</v>
       </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="n">
+        <v>0</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -6005,7 +8845,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>D-WAVE SYSTEMS INC;;D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+          <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR;;D WAVE SYSTEMS INC</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -6013,7 +8853,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -6055,6 +8895,36 @@
       <c r="O95" t="n">
         <v>0.5</v>
       </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>2</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0</v>
+      </c>
+      <c r="V95" t="n">
+        <v>1</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -6114,6 +8984,36 @@
       <c r="O96" t="n">
         <v>0</v>
       </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0</v>
+      </c>
+      <c r="T96" t="n">
+        <v>2</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -6173,6 +9073,36 @@
       <c r="O97" t="n">
         <v>0</v>
       </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -6232,6 +9162,36 @@
       <c r="O98" t="n">
         <v>0</v>
       </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0</v>
+      </c>
+      <c r="X98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -6241,7 +9201,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
+          <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -6249,7 +9209,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>CA;;EP;;JP;;KR;;CN</t>
+          <t>JP;;CN;;KR;;CA;;EP</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -6291,6 +9251,36 @@
       <c r="O99" t="n">
         <v>0.5</v>
       </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W99" t="n">
+        <v>0</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -6300,7 +9290,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司;;IBM</t>
+          <t>国际商业机器公司;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -6308,7 +9298,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>DE;;GB;;JP;;CN</t>
+          <t>JP;;DE;;GB;;CN</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -6350,6 +9340,36 @@
       <c r="O100" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="P100" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="n">
+        <v>0</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -6367,7 +9387,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>CA;;EP;;JP;;KR;;AU;;CN</t>
+          <t>JP;;AU;;CN;;KR;;CA;;EP</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -6409,6 +9429,36 @@
       <c r="O101" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="P101" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="n">
+        <v>0</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -6418,7 +9468,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;BARENDS RAMI;;グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;구글 엘엘씨;;GOOGLE INC;;GOOGLE LLC</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE INC;;ラミ・バレントス;;구글 엘엘씨;;BARENDS RAMI;;グーグル エルエルシー;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -6426,7 +9476,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>CA;;WO;;EP;;SG;;JP;;US;;KR;;AU;;CN</t>
+          <t>JP;;AU;;CN;;KR;;US;;SG;;CA;;EP;;WO</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -6468,6 +9518,36 @@
       <c r="O102" t="n">
         <v>1</v>
       </c>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -6477,7 +9557,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NIU YUEZHEN;;グーグル エルエルシー;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE INC;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT;;GOOGLE INC;;NIU YUEZHEN;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;グーグル エルエルシー;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -6485,7 +9565,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>CA;;WO;;EP;;JP;;US;;KR;;AU;;CN</t>
+          <t>JP;;AU;;CN;;KR;;US;;CA;;EP;;WO</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -6527,6 +9607,36 @@
       <c r="O103" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1</v>
+      </c>
+      <c r="S103" t="n">
+        <v>1</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="X103" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -6544,7 +9654,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>EP;;JP;;KR;;US;;CN</t>
+          <t>JP;;CN;;KR;;US;;EP</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -6586,6 +9696,36 @@
       <c r="O104" t="n">
         <v>0.5</v>
       </c>
+      <c r="P104" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -6595,7 +9735,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;BARENDS RAMI;;グーグル エルエルシー;;구글 엘엘씨;;GOOGLE INC;;GOOGLE LLC</t>
+          <t>GOOGLE INC;;ラミ・バレントス;;구글 엘엘씨;;BARENDS RAMI;;グーグル エルエルシー;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -6603,7 +9743,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>CA;;WO;;EP;;SG;;JP;;US;;KR;;AU;;CN</t>
+          <t>JP;;AU;;CN;;KR;;US;;SG;;CA;;EP;;WO</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -6645,6 +9785,36 @@
       <c r="O105" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="P105" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="n">
+        <v>0</v>
+      </c>
+      <c r="X105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -6662,7 +9832,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>EP;;KR;;JP;;CN</t>
+          <t>KR;;EP;;JP;;CN</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -6704,6 +9874,36 @@
       <c r="O106" t="n">
         <v>0</v>
       </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0</v>
+      </c>
+      <c r="U106" t="n">
+        <v>0</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W106" t="n">
+        <v>0</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -6713,7 +9913,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>UNIV SOUTHEAST;;东南大学</t>
+          <t>东南大学;;UNIV SOUTHEAST</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -6763,6 +9963,36 @@
       <c r="O107" t="n">
         <v>0.5</v>
       </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>1</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -6772,7 +10002,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
+          <t>INST MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -6822,6 +10052,36 @@
       <c r="O108" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>1</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -6831,7 +10091,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司;;IBM</t>
+          <t>国际商业机器公司;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -6839,7 +10099,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>DE;;GB;;JP;;CN</t>
+          <t>JP;;DE;;GB;;CN</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6881,6 +10141,36 @@
       <c r="O109" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="P109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -6940,6 +10230,36 @@
       <c r="O110" t="n">
         <v>0</v>
       </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
+      <c r="S110" t="n">
+        <v>1</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="n">
+        <v>0</v>
+      </c>
+      <c r="X110" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -6999,6 +10319,36 @@
       <c r="O111" t="n">
         <v>0</v>
       </c>
+      <c r="P111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0</v>
+      </c>
+      <c r="X111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -7058,6 +10408,36 @@
       <c r="O112" t="n">
         <v>0.5</v>
       </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>1</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -7117,6 +10497,36 @@
       <c r="O113" t="n">
         <v>0</v>
       </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="n">
+        <v>1</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -7126,7 +10536,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;BARENDS RAMI;;グーグル エルエルシー;;구글 엘엘씨;;GOOGLE INC;;GOOGLE LLC</t>
+          <t>GOOGLE INC;;ラミ・バレントス;;구글 엘엘씨;;BARENDS RAMI;;グーグル エルエルシー;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -7134,7 +10544,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CA;;WO;;EP;;SG;;JP;;US;;KR;;AU;;CN</t>
+          <t>JP;;AU;;CN;;KR;;US;;SG;;CA;;EP;;WO</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -7176,6 +10586,36 @@
       <c r="O114" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="P114" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -7185,7 +10625,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LLC</t>
+          <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -7235,6 +10675,36 @@
       <c r="O115" t="n">
         <v>0</v>
       </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" t="n">
+        <v>1</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -7244,7 +10714,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
+          <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -7294,6 +10764,36 @@
       <c r="O116" t="n">
         <v>0.5</v>
       </c>
+      <c r="P116" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0</v>
+      </c>
+      <c r="U116" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0</v>
+      </c>
+      <c r="X116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -7303,7 +10803,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
+          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -7353,6 +10853,36 @@
       <c r="O117" t="n">
         <v>1</v>
       </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>2</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
+      <c r="S117" t="n">
+        <v>0</v>
+      </c>
+      <c r="T117" t="n">
+        <v>0</v>
+      </c>
+      <c r="U117" t="n">
+        <v>0</v>
+      </c>
+      <c r="V117" t="n">
+        <v>1</v>
+      </c>
+      <c r="W117" t="n">
+        <v>0</v>
+      </c>
+      <c r="X117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -7362,7 +10892,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LLC</t>
+          <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -7412,6 +10942,36 @@
       <c r="O118" t="n">
         <v>0</v>
       </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" t="n">
+        <v>1</v>
+      </c>
+      <c r="S118" t="n">
+        <v>0</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0</v>
+      </c>
+      <c r="U118" t="n">
+        <v>0</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -7429,7 +10989,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>CA;;EP;;JP;;KR;;AU;;CN</t>
+          <t>JP;;AU;;CN;;KR;;CA;;EP</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -7471,6 +11031,36 @@
       <c r="O119" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="P119" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
+      <c r="S119" t="n">
+        <v>0</v>
+      </c>
+      <c r="T119" t="n">
+        <v>0</v>
+      </c>
+      <c r="U119" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="n">
+        <v>0</v>
+      </c>
+      <c r="X119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -7529,6 +11119,36 @@
       </c>
       <c r="O120" t="n">
         <v>0.5</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>1</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
+      <c r="S120" t="n">
+        <v>0</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0</v>
+      </c>
+      <c r="U120" t="n">
+        <v>0</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W120" t="n">
+        <v>0</v>
+      </c>
+      <c r="X120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
